--- a/Testcase Template.xlsx
+++ b/Testcase Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Du an tot nghiep\DATT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Du an tot nghiep\DATT\GitHub\StrangerBookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E580A-1896-4899-A34E-20E3CF006410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFD9BFD-9430-4050-8ECE-2F5B05C25BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{DBED8905-20E3-4E7A-9CF6-32316FA07CBE}"/>
   </bookViews>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -400,8 +400,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
         <color rgb="FFB2B2B2"/>
@@ -409,7 +409,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -424,7 +437,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -434,6 +447,21 @@
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -449,86 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,15 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -553,6 +496,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F042E8E7-3E71-4D55-BABA-F4E6C67880A8}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -893,252 +928,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:15" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="G4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="G5" s="7" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="G5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="G6" s="7" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="G6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:15" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="23" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="107.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="28" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="35"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="36"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="37"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="38"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="39"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="26">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A11:O11"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -1147,17 +1193,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D3:E6"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
